--- a/IT_BDM/WebRoot/files/import/xtz/条码变更明细.xlsx
+++ b/IT_BDM/WebRoot/files/import/xtz/条码变更明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>提交日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,12 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,18 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="12" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +462,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -445,10 +480,48 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>42685</v>
+      </c>
+      <c r="B2" s="1">
+        <f>WEEKNUM(A2)</f>
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>518000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>518001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1324564654456</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42685</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/IT_BDM/WebRoot/files/import/xtz/条码变更明细.xlsx
+++ b/IT_BDM/WebRoot/files/import/xtz/条码变更明细.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>提交日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别注意SN号的格式问题左上角不能带有绿色符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +117,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +159,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,10 +486,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -489,7 +503,6 @@
         <v>42685</v>
       </c>
       <c r="B2" s="1">
-        <f>WEEKNUM(A2)</f>
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -514,13 +527,18 @@
         <v>42685</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
